--- a/PTE/成绩分析.xlsx
+++ b/PTE/成绩分析.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yulongzhang/Desktop/jobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yulongzhang/Projects/zixue/PTE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98D29D-831E-7C49-81EE-1A5B8A00BA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D524F8-C523-9545-AABE-9B330EA6C9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="-21080" windowWidth="38400" windowHeight="21100" xr2:uid="{C9428FA6-8968-5F49-9276-342F2BC2FF39}"/>
+    <workbookView xWindow="-5500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{C9428FA6-8968-5F49-9276-342F2BC2FF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Lisetening:</t>
   </si>
@@ -121,6 +120,9 @@
   </si>
   <si>
     <t>语速要均匀，from the picture, I can see</t>
+  </si>
+  <si>
+    <t>HIW</t>
   </si>
 </sst>
 </file>
@@ -172,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +206,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,6 +236,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,13 +260,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -583,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9776BA4E-05A1-264A-BF04-9953075A212D}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,6 +639,9 @@
       <c r="C2">
         <v>78</v>
       </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -626,6 +653,12 @@
       <c r="C3">
         <v>69</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -818,6 +851,16 @@
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
